--- a/CAD_Mechanical/AARL_QR-Quadruped/AARL_QR_FR-Frame/InProgress/Haonan/AARL_QR_FR_LE_BI_BL-Back_Left_new/Adjustable Spiral Torsion Spring/Torsion Spring Calculations.xlsx
+++ b/CAD_Mechanical/AARL_QR-Quadruped/AARL_QR_FR-Frame/InProgress/Haonan/AARL_QR_FR_LE_BI_BL-Back_Left_new/Adjustable Spiral Torsion Spring/Torsion Spring Calculations.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Quadruped_Robot\CAD_Mechanical\AARL_QR-Quadruped\AARL_QR_FR-Frame\InProgress\Haonan\AARL_QR_FR_LE_BI_BL-Back_Left_new\Adjustable Spiral Torsion Spring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94C35C2D-5BC3-42BE-99F5-46B0FCC22B8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{135DF113-18DA-4966-8338-EAFE4DAD818C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Spring 3" sheetId="2" r:id="rId1"/>
-    <sheet name="Test Spring 3 CF" sheetId="3" r:id="rId2"/>
-    <sheet name="Test Spring 3 CF Set 2" sheetId="4" r:id="rId3"/>
+    <sheet name="Test Spring 3 FG" sheetId="3" r:id="rId2"/>
+    <sheet name="Test Spring 3 FG Set 2" sheetId="4" r:id="rId3"/>
+    <sheet name="Test Spring 3 Kevlar" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="18">
   <si>
     <t>unloaded</t>
   </si>
@@ -85,10 +86,13 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>2 sets of HSTS Fiberglass inlay. Each set is 4 printer layers thick and begin 5 layers from the top/bottom faces of the spring.</t>
+    <t>2 sets of kevlar inlay. Each set is 6 layers thick and begins 5 layers from the top/bottom faces of the spring.</t>
   </si>
   <si>
-    <t>2 sets of HSTS Fiberglass inlay. Each set is 4 printer layers thick and begin 5 layers from the top/bottom faces of the spring.
+    <t>2 sets of HSTS Fiberglass inlay. Each set is 4 printer layers thick and begins 5 layers from the top/bottom faces of the spring.</t>
+  </si>
+  <si>
+    <t>2 sets of HSTS Fiberglass inlay. Each set is 4 printer layers thick and begins 5 layers from the top/bottom faces of the spring.
 Set 2 taken after testing the spring's range of motion. HSTS fibers most likely cracked resulting in over 50% stiffness reduction.</t>
   </si>
 </sst>
@@ -1100,7 +1104,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Test Spring 3 CF'!$E$3:$E$14</c:f>
+              <c:f>'Test Spring 3 FG'!$E$3:$E$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1145,7 +1149,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Test Spring 3 CF'!$D$3:$D$14</c:f>
+              <c:f>'Test Spring 3 FG'!$D$3:$D$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1275,7 +1279,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Test Spring 3 CF'!$H$3:$H$14</c:f>
+              <c:f>'Test Spring 3 FG'!$H$3:$H$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1320,7 +1324,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Test Spring 3 CF'!$G$3:$G$14</c:f>
+              <c:f>'Test Spring 3 FG'!$G$3:$G$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1837,7 +1841,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Test Spring 3 CF Set 2'!$E$3:$E$14</c:f>
+              <c:f>'Test Spring 3 FG Set 2'!$E$3:$E$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1882,7 +1886,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Test Spring 3 CF Set 2'!$D$3:$D$14</c:f>
+              <c:f>'Test Spring 3 FG Set 2'!$D$3:$D$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -2012,7 +2016,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Test Spring 3 CF Set 2'!$H$3:$H$14</c:f>
+              <c:f>'Test Spring 3 FG Set 2'!$H$3:$H$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -2057,7 +2061,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Test Spring 3 CF Set 2'!$G$3:$G$14</c:f>
+              <c:f>'Test Spring 3 FG Set 2'!$G$3:$G$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -2104,6 +2108,791 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-28E3-4536-AB97-F4E14DF8A737}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1382923647"/>
+        <c:axId val="2116997007"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1382923647"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Torque (N-m)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2116997007"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2116997007"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Deflection (rad)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="3.0555555555555555E-2"/>
+              <c:y val="0.37907771945173518"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1382923647"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Test</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Spring 3 with Fiberglass Inlay</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Clockwise Torque</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.17314583280010334"/>
+                  <c:y val="6.0513371790263233E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Test Spring 3 Kevlar'!$E$3:$E$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>2.4522668791823018E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6777137072962776E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.9026860448491472E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.9028156424143231E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.3494527885192965E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.7891078690199168E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.7882048635017246E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.14637315728080433</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.19427148472285499</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.24176537881459353</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.35642903665040032</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.45828834627496817</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Test Spring 3 Kevlar'!$D$3:$D$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1.3788101090755204E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3736477827122883E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.07177948351002E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.6794487087750501E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.9845130209103034E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.6774823953448036E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.527531402458793E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.6057029118347832E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.667157742618339E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.102799892942466</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.14032447186034408</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.6826447217080352E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.16877333866785166</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.25010568181078741</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.36442474781641598</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.12426744274199626</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-40C3-4F13-97CA-A456D014F5BC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Counter-Clockwise Torque</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.17501739569872377"/>
+                  <c:y val="-7.1581499113116911E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Test Spring 3 Kevlar'!$H$3:$H$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>2.4523564137356367E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6779565796676489E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.903514816694933E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.903514816694933E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.3520769074911452E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.7954589550933682E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.7962855692160053E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.14657880211276461</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.19447648899735248</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.24245396505301486</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.35737819774312474</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.45758288311152356</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Test Spring 3 Kevlar'!$G$3:$G$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1.0821041362364843E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.076941809873252E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4609142453120045E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.5378560551852572E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.4609142453120045E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.8397243543875255E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.4454272662223087E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.9813170079773184E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.2883476335428184E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.813912722571364E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.13264502315156904</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.7627825445142728E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.15114551322270894</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.23945917337362202</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.36843900509600297</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.2935099599060507E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-40C3-4F13-97CA-A456D014F5BC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2535,6 +3324,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3568,6 +4397,522 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4188,6 +5533,49 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA41B248-4575-4BB4-875C-0A66A91A89DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>4761</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8D610C9-1D01-4640-BA20-C71292B54847}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4510,7 +5898,7 @@
   <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5092,7 +6480,7 @@
   <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5512,7 +6900,7 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -5612,8 +7000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B3929C0-B96D-4F9B-8D10-24FEEFAD81E6}">
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6033,7 +7421,7 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -6113,12 +7501,652 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A19:D26"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A19:D26"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF22B8A3-95C2-4791-94DF-9E76D33A34B1}">
+  <dimension ref="A1:M30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="8" width="15.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>50</v>
+      </c>
+      <c r="B3">
+        <v>50</v>
+      </c>
+      <c r="C3">
+        <v>0.79</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D20" si="0">RADIANS(C3)</f>
+        <v>1.3788101090755204E-2</v>
+      </c>
+      <c r="E3">
+        <f>(A$3*9.81*COS(D3)*B3)/(1000*1000)</f>
+        <v>2.4522668791823018E-2</v>
+      </c>
+      <c r="F3">
+        <v>0.62</v>
+      </c>
+      <c r="G3">
+        <f>RADIANS(F3)</f>
+        <v>1.0821041362364843E-2</v>
+      </c>
+      <c r="H3">
+        <f>(A$3*9.81*COS(G3)*B3)/(1000*1000)</f>
+        <v>2.4523564137356367E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4">
+        <v>75</v>
+      </c>
+      <c r="C4">
+        <v>1.36</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>2.3736477827122883E-2</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E6" si="1">(A$3*9.81*COS(D4)*B4)/(1000*1000)</f>
+        <v>3.6777137072962776E-2</v>
+      </c>
+      <c r="F4">
+        <v>1.19</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G14" si="2">RADIANS(F4)</f>
+        <v>2.076941809873252E-2</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:H6" si="3">(A$3*9.81*COS(G4)*B4)/(1000*1000)</f>
+        <v>3.6779565796676489E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5">
+        <v>100</v>
+      </c>
+      <c r="C5">
+        <v>1.76</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>3.07177948351002E-2</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>4.9026860448491472E-2</v>
+      </c>
+      <c r="F5">
+        <v>1.41</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="2"/>
+        <v>2.4609142453120045E-2</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="3"/>
+        <v>4.903514816694933E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0.44</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>7.6794487087750501E-3</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0.26</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="2"/>
+        <v>4.5378560551852572E-3</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>100</v>
+      </c>
+      <c r="B7">
+        <v>50</v>
+      </c>
+      <c r="C7">
+        <v>1.71</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>2.9845130209103034E-2</v>
+      </c>
+      <c r="E7">
+        <f>(A$7*9.81*COS(D7)*B7)/(1000*1000)</f>
+        <v>4.9028156424143231E-2</v>
+      </c>
+      <c r="F7">
+        <v>1.41</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>2.4609142453120045E-2</v>
+      </c>
+      <c r="H7">
+        <f>(A$7*9.81*COS(G7)*B7)/(1000*1000)</f>
+        <v>4.903514816694933E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8">
+        <v>75</v>
+      </c>
+      <c r="C8">
+        <v>2.68</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>4.6774823953448036E-2</v>
+      </c>
+      <c r="E8">
+        <f t="shared" ref="E8:E10" si="4">(A$7*9.81*COS(D8)*B8)/(1000*1000)</f>
+        <v>7.3494527885192965E-2</v>
+      </c>
+      <c r="F8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>3.8397243543875255E-2</v>
+      </c>
+      <c r="H8">
+        <f t="shared" ref="H8:H9" si="5">(A$7*9.81*COS(G8)*B8)/(1000*1000)</f>
+        <v>7.3520769074911452E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9">
+        <v>100</v>
+      </c>
+      <c r="C9">
+        <v>3.74</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>6.527531402458793E-2</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="4"/>
+        <v>9.7891078690199168E-2</v>
+      </c>
+      <c r="F9">
+        <v>3.12</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>5.4454272662223087E-2</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="5"/>
+        <v>9.7954589550933682E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0.92</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>1.6057029118347832E-2</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0.4</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="2"/>
+        <v>6.9813170079773184E-3</v>
+      </c>
+      <c r="H10">
+        <f>(A$7*9.81*COS(G10)*B10)/(1000*1000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>200</v>
+      </c>
+      <c r="B11">
+        <v>50</v>
+      </c>
+      <c r="C11">
+        <v>3.82</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>6.667157742618339E-2</v>
+      </c>
+      <c r="E11">
+        <f>(A$11*9.81*COS(D11)*B11)/(1000*1000)</f>
+        <v>9.7882048635017246E-2</v>
+      </c>
+      <c r="F11">
+        <v>3.03</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="2"/>
+        <v>5.2883476335428184E-2</v>
+      </c>
+      <c r="H11">
+        <f>(A$11*9.81*COS(G11)*B11)/(1000*1000)</f>
+        <v>9.7962855692160053E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12">
+        <v>75</v>
+      </c>
+      <c r="C12">
+        <v>5.89</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>0.102799892942466</v>
+      </c>
+      <c r="E12">
+        <f t="shared" ref="E12:E14" si="6">(A$11*9.81*COS(D12)*B12)/(1000*1000)</f>
+        <v>0.14637315728080433</v>
+      </c>
+      <c r="F12">
+        <v>5.05</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="2"/>
+        <v>8.813912722571364E-2</v>
+      </c>
+      <c r="H12">
+        <f t="shared" ref="H12:H14" si="7">(A$11*9.81*COS(G12)*B12)/(1000*1000)</f>
+        <v>0.14657880211276461</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13">
+        <v>100</v>
+      </c>
+      <c r="C13">
+        <v>8.0399999999999991</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>0.14032447186034408</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="6"/>
+        <v>0.19427148472285499</v>
+      </c>
+      <c r="F13">
+        <v>7.6</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="2"/>
+        <v>0.13264502315156904</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="7"/>
+        <v>0.19447648899735248</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>2.11</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>3.6826447217080352E-2</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1.01</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="2"/>
+        <v>1.7627825445142728E-2</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>500</v>
+      </c>
+      <c r="B15">
+        <v>50</v>
+      </c>
+      <c r="C15">
+        <v>9.67</v>
+      </c>
+      <c r="D15">
+        <f t="shared" ref="D15:D18" si="8">RADIANS(C15)</f>
+        <v>0.16877333866785166</v>
+      </c>
+      <c r="E15">
+        <f>(A$15*9.81*COS(D15)*B15)/(1000*1000)</f>
+        <v>0.24176537881459353</v>
+      </c>
+      <c r="F15">
+        <v>8.66</v>
+      </c>
+      <c r="G15">
+        <f t="shared" ref="G15:G18" si="9">RADIANS(F15)</f>
+        <v>0.15114551322270894</v>
+      </c>
+      <c r="H15">
+        <f>(A$15*9.81*COS(G15)*B15)/(1000*1000)</f>
+        <v>0.24245396505301486</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16">
+        <v>75</v>
+      </c>
+      <c r="C16">
+        <v>14.33</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="8"/>
+        <v>0.25010568181078741</v>
+      </c>
+      <c r="E16">
+        <f>(A$15*9.81*COS(D16)*B16)/(1000*1000)</f>
+        <v>0.35642903665040032</v>
+      </c>
+      <c r="F16">
+        <v>13.72</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="9"/>
+        <v>0.23945917337362202</v>
+      </c>
+      <c r="H16">
+        <f>(A$15*9.81*COS(G16)*B16)/(1000*1000)</f>
+        <v>0.35737819774312474</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17">
+        <v>100</v>
+      </c>
+      <c r="C17">
+        <v>20.88</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="8"/>
+        <v>0.36442474781641598</v>
+      </c>
+      <c r="E17">
+        <f>(A$15*9.81*COS(D17)*B17)/(1000*1000)</f>
+        <v>0.45828834627496817</v>
+      </c>
+      <c r="F17">
+        <v>21.11</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="9"/>
+        <v>0.36843900509600297</v>
+      </c>
+      <c r="H17">
+        <f>(A$15*9.81*COS(G17)*B17)/(1000*1000)</f>
+        <v>0.45758288311152356</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>7.12</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="8"/>
+        <v>0.12426744274199626</v>
+      </c>
+      <c r="E18">
+        <f>(A$15*9.81*COS(D18)*B18)/(1000*1000)</f>
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>2.46</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="9"/>
+        <v>4.2935099599060507E-2</v>
+      </c>
+      <c r="H18">
+        <f t="shared" ref="H16:H18" si="10">(A$11*9.81*COS(G18)*B18)/(1000*1000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20">
+        <v>60</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>1.0471975511965976</v>
+      </c>
+      <c r="F20">
+        <v>56</v>
+      </c>
+      <c r="G20">
+        <f t="shared" ref="G20" si="11">RADIANS(F20)</f>
+        <v>0.97738438111682457</v>
+      </c>
+      <c r="J20" t="s">
+        <v>9</v>
+      </c>
+      <c r="L20">
+        <f>1/0.6842</f>
+        <v>1.4615609470914936</v>
+      </c>
+      <c r="M20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J21" t="s">
+        <v>10</v>
+      </c>
+      <c r="L21">
+        <f>1/0.7209</f>
+        <v>1.3871549452073797</v>
+      </c>
+      <c r="M21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="J23" t="s">
+        <v>12</v>
+      </c>
+      <c r="L23">
+        <f>AVERAGE(L20,L21)</f>
+        <v>1.4243579461494367</v>
+      </c>
+      <c r="M23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="L25">
+        <f>L23*4</f>
+        <v>5.6974317845977467</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A23:D30"/>
+    <mergeCell ref="A15:A17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
